--- a/data/annual_rainfall.xlsx
+++ b/data/annual_rainfall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Downloads/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/168116ed77ffbf42/Zhiwei_Song/Wisconsin/CS719_Final_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE53E7F-2D2B-BC40-A997-5980D251EDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
